--- a/Proyectos/2016/5/P1623 - Ernesto Vazquez Avila _MO/Compras/P1623 - CCON, HR, Ernesto Vazquez Avila _MO.xlsx
+++ b/Proyectos/2016/5/P1623 - Ernesto Vazquez Avila _MO/Compras/P1623 - CCON, HR, Ernesto Vazquez Avila _MO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400"/>
+    <workbookView xWindow="600" yWindow="255" windowWidth="14025" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="FTO PEDIDO 2015" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'FTO PEDIDO 2015'!$A$1:$U$45</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1002,12 +1002,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="95">
+  <fonts count="95" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -3348,7 +3348,7 @@
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3391,7 +3391,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3489,6 +3489,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3523,6 +3524,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3698,17 +3700,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T37" activeCellId="1" sqref="P37 T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -3735,7 +3737,7 @@
     <col min="31" max="31" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="137" t="s">
         <v>93</v>
       </c>
@@ -3760,7 +3762,7 @@
       <c r="T1" s="138"/>
       <c r="U1" s="139"/>
     </row>
-    <row r="2" spans="1:21" ht="36" customHeight="1">
+    <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="140"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
@@ -3787,7 +3789,7 @@
       <c r="T2" s="102"/>
       <c r="U2" s="208"/>
     </row>
-    <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="140"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
@@ -3814,7 +3816,7 @@
       <c r="T3" s="104"/>
       <c r="U3" s="208"/>
     </row>
-    <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="140"/>
       <c r="B4" s="97" t="s">
         <v>78</v>
@@ -3839,7 +3841,7 @@
       <c r="T4" s="99"/>
       <c r="U4" s="208"/>
     </row>
-    <row r="5" spans="1:21" ht="18">
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="140"/>
       <c r="B5" s="218"/>
       <c r="C5" s="219"/>
@@ -3864,7 +3866,7 @@
       <c r="T5" s="9"/>
       <c r="U5" s="208"/>
     </row>
-    <row r="6" spans="1:21" ht="18">
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="140"/>
       <c r="B6" s="212" t="s">
         <v>1</v>
@@ -3895,7 +3897,7 @@
       <c r="T6" s="235"/>
       <c r="U6" s="208"/>
     </row>
-    <row r="7" spans="1:21" ht="13.9" customHeight="1">
+    <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="140"/>
       <c r="B7" s="212" t="s">
         <v>3</v>
@@ -3926,7 +3928,7 @@
       <c r="T7" s="237"/>
       <c r="U7" s="208"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="140"/>
       <c r="B8" s="212" t="s">
         <v>5</v>
@@ -3957,7 +3959,7 @@
       <c r="T8" s="197"/>
       <c r="U8" s="208"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="140"/>
       <c r="B9" s="212" t="s">
         <v>6</v>
@@ -3988,7 +3990,7 @@
       <c r="T9" s="217"/>
       <c r="U9" s="208"/>
     </row>
-    <row r="10" spans="1:21" ht="18">
+    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="140"/>
       <c r="B10" s="212" t="s">
         <v>39</v>
@@ -4019,7 +4021,7 @@
       <c r="T10" s="200"/>
       <c r="U10" s="208"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickBot="1">
+    <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="140"/>
       <c r="B11" s="228" t="s">
         <v>29</v>
@@ -4050,7 +4052,7 @@
       <c r="T11" s="225"/>
       <c r="U11" s="208"/>
     </row>
-    <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1">
+    <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="140"/>
       <c r="B12" s="230" t="s">
         <v>96</v>
@@ -4075,7 +4077,7 @@
       <c r="T12" s="233"/>
       <c r="U12" s="208"/>
     </row>
-    <row r="13" spans="1:21" ht="26.25">
+    <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A13" s="140"/>
       <c r="B13" s="115" t="s">
         <v>8</v>
@@ -4108,7 +4110,7 @@
       </c>
       <c r="U13" s="208"/>
     </row>
-    <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="140"/>
       <c r="B14" s="186" t="s">
         <v>16</v>
@@ -4135,12 +4137,12 @@
       </c>
       <c r="S14" s="184">
         <f ca="1">TODAY()</f>
-        <v>42492</v>
+        <v>42493</v>
       </c>
       <c r="T14" s="185"/>
       <c r="U14" s="208"/>
     </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1">
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="140"/>
       <c r="B15" s="179" t="s">
         <v>51</v>
@@ -4165,7 +4167,7 @@
       <c r="T15" s="182"/>
       <c r="U15" s="208"/>
     </row>
-    <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="140"/>
       <c r="B16" s="144" t="s">
         <v>15</v>
@@ -4190,7 +4192,7 @@
       <c r="T16" s="146"/>
       <c r="U16" s="208"/>
     </row>
-    <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="140"/>
       <c r="B17" s="147" t="s">
         <v>19</v>
@@ -4215,7 +4217,7 @@
       <c r="T17" s="149"/>
       <c r="U17" s="208"/>
     </row>
-    <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="140"/>
       <c r="B18" s="150" t="s">
         <v>91</v>
@@ -4240,7 +4242,7 @@
       <c r="T18" s="153"/>
       <c r="U18" s="208"/>
     </row>
-    <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1">
+    <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="140"/>
       <c r="B19" s="119" t="s">
         <v>33</v>
@@ -4271,7 +4273,7 @@
       <c r="T19" s="223"/>
       <c r="U19" s="208"/>
     </row>
-    <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="140"/>
       <c r="B20" s="122" t="s">
         <v>42</v>
@@ -4300,7 +4302,7 @@
       <c r="T20" s="67"/>
       <c r="U20" s="208"/>
     </row>
-    <row r="21" spans="1:22" ht="81.75" thickBot="1">
+    <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="140"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
@@ -4356,7 +4358,7 @@
       <c r="U21" s="208"/>
       <c r="V21" s="16"/>
     </row>
-    <row r="22" spans="1:22" ht="104.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:22" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="140"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
@@ -4400,7 +4402,7 @@
       <c r="U22" s="208"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:22" ht="21">
+    <row r="23" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="140"/>
       <c r="B23" s="69">
         <v>1</v>
@@ -4442,12 +4444,12 @@
         <v>0.3</v>
       </c>
       <c r="T23" s="43">
-        <f>R23*(1-S23)</f>
+        <f t="shared" ref="T23:T32" si="1">R23*(1-S23)</f>
         <v>2373</v>
       </c>
       <c r="U23" s="208"/>
     </row>
-    <row r="24" spans="1:22" ht="21">
+    <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="140"/>
       <c r="B24" s="69">
         <v>0</v>
@@ -4481,12 +4483,12 @@
         <v>0</v>
       </c>
       <c r="T24" s="43">
-        <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U24" s="208"/>
     </row>
-    <row r="25" spans="1:22" ht="21">
+    <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A25" s="140"/>
       <c r="B25" s="69">
         <v>0</v>
@@ -4525,7 +4527,7 @@
       </c>
       <c r="U25" s="208"/>
     </row>
-    <row r="26" spans="1:22" ht="21">
+    <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A26" s="140"/>
       <c r="B26" s="69">
         <v>0</v>
@@ -4564,7 +4566,7 @@
       </c>
       <c r="U26" s="208"/>
     </row>
-    <row r="27" spans="1:22" ht="21">
+    <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A27" s="140"/>
       <c r="B27" s="69">
         <v>0</v>
@@ -4603,7 +4605,7 @@
       </c>
       <c r="U27" s="208"/>
     </row>
-    <row r="28" spans="1:22" ht="21">
+    <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A28" s="140"/>
       <c r="B28" s="69">
         <v>0</v>
@@ -4642,7 +4644,7 @@
       </c>
       <c r="U28" s="208"/>
     </row>
-    <row r="29" spans="1:22" ht="21">
+    <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A29" s="140"/>
       <c r="B29" s="69">
         <v>0</v>
@@ -4679,7 +4681,7 @@
       </c>
       <c r="U29" s="208"/>
     </row>
-    <row r="30" spans="1:22" ht="21">
+    <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A30" s="140"/>
       <c r="B30" s="69">
         <v>0</v>
@@ -4716,7 +4718,7 @@
       </c>
       <c r="U30" s="208"/>
     </row>
-    <row r="31" spans="1:22" ht="21">
+    <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A31" s="140"/>
       <c r="B31" s="69">
         <v>0</v>
@@ -4755,7 +4757,7 @@
       </c>
       <c r="U31" s="208"/>
     </row>
-    <row r="32" spans="1:22" ht="21.75" thickBot="1">
+    <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="140"/>
       <c r="B32" s="70">
         <v>0</v>
@@ -4794,7 +4796,7 @@
       </c>
       <c r="U32" s="208"/>
     </row>
-    <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1">
+    <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="140"/>
       <c r="B33" s="45">
         <v>0</v>
@@ -4826,7 +4828,7 @@
       </c>
       <c r="U33" s="208"/>
     </row>
-    <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1">
+    <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="140"/>
       <c r="B34" s="45">
         <v>0</v>
@@ -4858,7 +4860,7 @@
       </c>
       <c r="U34" s="208"/>
     </row>
-    <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1">
+    <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="140"/>
       <c r="B35" s="45">
         <v>0</v>
@@ -4890,7 +4892,7 @@
       </c>
       <c r="U35" s="208"/>
     </row>
-    <row r="36" spans="1:21" ht="21.75" customHeight="1">
+    <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="140"/>
       <c r="B36" s="159" t="s">
         <v>34</v>
@@ -4925,7 +4927,7 @@
       </c>
       <c r="U36" s="208"/>
     </row>
-    <row r="37" spans="1:21" ht="14.25" customHeight="1">
+    <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="140"/>
       <c r="B37" s="203" t="s">
         <v>50</v>
@@ -4966,7 +4968,7 @@
       </c>
       <c r="U37" s="208"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="140"/>
       <c r="B38" s="204"/>
       <c r="C38" s="57"/>
@@ -4993,7 +4995,7 @@
       </c>
       <c r="U38" s="208"/>
     </row>
-    <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1">
+    <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="140"/>
       <c r="B39" s="204"/>
       <c r="C39" s="54" t="s">
@@ -5025,7 +5027,7 @@
       </c>
       <c r="U39" s="208"/>
     </row>
-    <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="140"/>
       <c r="B40" s="167" t="s">
         <v>45</v>
@@ -5050,7 +5052,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="208"/>
     </row>
-    <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="140"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
@@ -5073,7 +5075,7 @@
       <c r="T41" s="22"/>
       <c r="U41" s="208"/>
     </row>
-    <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="140"/>
       <c r="B42" s="161" t="s">
         <v>95</v>
@@ -5098,7 +5100,7 @@
       <c r="T42" s="163"/>
       <c r="U42" s="208"/>
     </row>
-    <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1">
+    <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="141"/>
       <c r="B43" s="209" t="s">
         <v>37</v>
@@ -5123,7 +5125,7 @@
       <c r="T43" s="156"/>
       <c r="U43" s="208"/>
     </row>
-    <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1">
+    <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="209" t="s">
         <v>38</v>
@@ -5148,7 +5150,7 @@
       <c r="T44" s="156"/>
       <c r="U44" s="33"/>
     </row>
-    <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1">
+    <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="174"/>
       <c r="B45" s="175"/>
       <c r="C45" s="175"/>
@@ -5287,21 +5289,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39.625" customWidth="1"/>
     <col min="3" max="3" width="8.375" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -5319,7 +5321,7 @@
       </c>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:7" ht="18">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -5335,7 +5337,7 @@
       <c r="E2" s="7"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
@@ -5349,7 +5351,7 @@
       <c r="E3" s="7"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -5362,7 +5364,7 @@
       <c r="E4" s="5"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
@@ -5373,7 +5375,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="20.25">
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>60</v>
       </c>
@@ -5381,7 +5383,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
@@ -5389,46 +5391,46 @@
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="20.25">
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B9" s="91" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="18">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="18">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="20.25">
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="18">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="18">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="18">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
     </row>
   </sheetData>
